--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2664.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2664.xlsx
@@ -354,7 +354,7 @@
         <v>2.421975471706073</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.326537366966307</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2664.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2664.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159431617387342</v>
+        <v>1.603237271308899</v>
       </c>
       <c r="B1">
-        <v>2.421975471706073</v>
+        <v>1.58710241317749</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.567187786102295</v>
       </c>
       <c r="D1">
-        <v>2.326537366966307</v>
+        <v>1.956164598464966</v>
       </c>
       <c r="E1">
-        <v>1.210777432105534</v>
+        <v>2.961583614349365</v>
       </c>
     </row>
   </sheetData>
